--- a/docs/Feature_Matrix_Resiliency_Libraries.xlsx
+++ b/docs/Feature_Matrix_Resiliency_Libraries.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skumar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skumar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{967B52D2-74DC-B24F-8CCA-2B457942EEE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30D449F-FDB1-5346-8CD6-4BB9B517274C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16340" xr2:uid="{E065123D-03CF-D14A-A8AE-840868EDACD8}"/>
+    <workbookView xWindow="780" yWindow="920" windowWidth="27640" windowHeight="16340" xr2:uid="{E065123D-03CF-D14A-A8AE-840868EDACD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +54,6 @@
     <t>Java 8 with lambdas and Suppliers</t>
   </si>
   <si>
-    <t>Java 7 &amp; functional programming style using vavr</t>
-  </si>
-  <si>
     <t>Imperative mostly</t>
   </si>
   <si>
@@ -159,13 +157,16 @@
   </si>
   <si>
     <t>Apache 2.0</t>
+  </si>
+  <si>
+    <t>Java 8 &amp; functional programming style using vavr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,8 +182,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +208,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6774"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,21 +236,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6774"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -534,286 +577,286 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="61.5" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="44" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="44" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="9" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="44" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>41</v>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
